--- a/TestResults/StProvStdPost.xlsx
+++ b/TestResults/StProvStdPost.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -54,6 +54,136 @@
   </si>
   <si>
     <t>Post</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"stProvStd":
+	{
+		"organizationStandardCode":"codethr",
+		"stateProvinceCode":"TessbvL1",
+		"stateProvinceName":"L1ShortNamb",
+		"effectiveDate":"2021-07-10",
+		"expirationDate":"2021-07-31"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_organizationStandardCode: codethr
+Input_stateProvinceCode: TessbvL1
+Input_stateProvinceName: L1ShortNamb
+Input_effectiveDate: 2021-07-10
+Input_expirationDate: 2021-07-31
+Input_LastUpdateUserName:Automation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB_UserName: Automation
+DB_organizationStandardCode: codethr
+DB_stateProvinceCode: TessbvL1
+DB_stateProvinceName: L1ShortNamb
+DB_effectiveDate: 2021-07-10
+DB_expirationDate: 2021-07-31
+DB_LastUpdateUserName:Automation
+</t>
+  </si>
+  <si>
+    <t>SUCCESS</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation",
+		"version":"1.0.0",
+		"message":
+		{
+			"status":"SUCCESS",
+			"internalMessage":" State Province Details successfully saved with stateProvinceCode :TessbvL1",
+			"data":null
+		}
+	},
+	"data":
+	{
+		"stateProvinceCode":"TessbvL1"
+	}
+}</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Audit Table Validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_organizationStandardCode: codethr
+Input_stateProvinceCode: TessbvL1
+Input_stateProvinceName: L1ShortNamb
+Input_effectiveDate2021-07-10
+Input_expirationDate2021-07-31
+Input_LastUpdateUserName:Automation
+Expected RevisionType CD:0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB_UserName: Automation
+DB_organizationStandardCode: codethr
+DB_stateProvinceCode: TessbvL1
+DB_stateProvinceName: L1ShortNamb
+DB_effectiveDate2021-07-10
+DB_expirationDate2021-07-31
+DB_LastUpdateUserName:Automation
+DB_RevisionType CD:0
+</t>
+  </si>
+  <si>
+    <t>Audit Table validation</t>
+  </si>
+  <si>
+    <t>TC_24</t>
+  </si>
+  <si>
+    <t>Verify the JMS-PASSED queue after the all attributes POST request sent</t>
+  </si>
+  <si>
+    <t>JMS</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_geopoliticalId: 85924352050351150
+DB_geopoliticalId: 85924352050351150
+Response_organizationStandardCode: codethr
+DB_organizationStandardCode: codethr
+Response_stateProvinceCode: TessbvL1
+DB_stateProvinceCode: TessbvL1
+Response_stateProvinceName: L1ShortNamb
+DB_stateProvinceName: L1ShortNamb
+Response_EffectiveDate: 2021-07-10
+DB_EffectiveDate: 2021-07-10
+Response_ExpirationDate: 2021-07-31
+DB_ExpirationDate: 2021-07-31
+</t>
+  </si>
+  <si>
+    <t>TC_02</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the empty value is passed in JSON for orgstdCd</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -64,9 +194,72 @@
 	},
 	"stProvStd":
 	{
-		"orgStdCd":"TestOrg",
-		"stProvCd":"Test1_StCD",
-		"stProvNm":"Test1_State_prov_Name",
+		"organizationStandardCode":"",
+		"stateProvinceCode":"TestStCD1",
+		"stateProvinceName":"Test_State_prov_Name1",
+		"effectiveDate":"2020-07-10",
+		"expirationDate":"2020-07-31"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: 3705426
+Input_organizationStandardCode: 
+Input_stateProvinceCode: TestStCD1
+Input_stateProvinceName: Test_State_prov_Name1
+Input_effectiveDate2020-07-10
+Input_expirationDate2020-07-31
+</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 400 Bad Request</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"organizationStandardCode",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>Verify that the State Prov Cd service is successfully created when empty value is passed for  stProvNm in JSON Request.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3705426"
+	},
+	"stProvStd":
+	{
+		"organizationStandardCode":"codethr",
+		"stateProvinceCode":"Test_SL2",
+		"stateProvinceName":"",
 		"effectiveDate":"2021-07-10",
 		"expirationDate":"2021-07-31"
 	}
@@ -74,9 +267,9 @@
   </si>
   <si>
     <t xml:space="preserve">Input_UserName: 3705426
-Input_orgStdCd: TestOrg
-Input_stProvCd: Test1_StCD
-Input_stProvNm: Test1_State_prov_Name
+Input_organizationStandardCode: codethr
+Input_stateProvinceCode: Test_SL2
+Input_stateProvinceName: 
 Input_effectiveDate2021-07-10
 Input_expirationDate2021-07-31
 Input_LastUpdateUserName:3705426
@@ -84,19 +277,13 @@
   </si>
   <si>
     <t xml:space="preserve">DB_UserName: 3705426
-DB_orgStdCd: TestOrg
-DB_stProvCd: Test1_StCD
-DB_stProvNm: Test1_State_prov_Name
+DB_organizationStandardCode: codethr
+DB_stateProvinceCode: Test_SL2
+DB_stateProvinceName: 
 DB_effectiveDate2021-07-10
 DB_expirationDate2021-07-31
 DB_LastUpdateUserName:3705426
 </t>
-  </si>
-  <si>
-    <t>SUCCESS</t>
-  </si>
-  <si>
-    <t>200</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -108,49 +295,15 @@
 		"message":
 		{
 			"status":"SUCCESS",
-			"internalMessage":" State Province Details successfully saved with stProvCd :Test1_StCD",
+			"internalMessage":" State Province Details successfully saved with stateProvinceCode :Test_SL2",
 			"data":null
 		}
 	},
 	"data":
 	{
-		"stProvCd":"Test1_StCD"
+		"stateProvinceCode":"Test_SL2"
 	}
 }</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Audit Table Validation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input_UserName: 3705426
-Input_orgStdCd: TestOrg
-Input_stProvCd: Test1_StCD
-Input_stProvNm: Test1_State_prov_Name
-Input_effectiveDate2021-07-10
-Input_expirationDate2021-07-31
-Input_LastUpdateUserName:3705426
-Expected RevisionType CD:0
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB_UserName: 3705426
-DB_orgStdCd: TestOrg
-DB_stProvCd: Test1_StCD
-DB_stProvNm: Test1_State_prov_Name
-DB_effectiveDate2021-07-10
-DB_expirationDate2021-07-31
-DB_LastUpdateUserName:3705426
-DB_RevisionType CD:0
-</t>
-  </si>
-  <si>
-    <t>Audit Table validation</t>
   </si>
 </sst>
 </file>
@@ -158,7 +311,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="24">
+  <fonts count="57">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -171,6 +324,171 @@
       <sz val="11.0"/>
       <color indexed="9"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -349,7 +667,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -418,6 +736,105 @@
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -552,6 +969,114 @@
       </c>
       <c r="L3"/>
     </row>
+    <row r="4">
+      <c r="A4" t="s" s="24">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s" s="25">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s" s="26">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s" s="27">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s" s="28">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s" s="29">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s" s="30">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s" s="31">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s" s="32">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s" s="33">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s" s="34">
+        <v>21</v>
+      </c>
+      <c r="L4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="35">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s" s="36">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s" s="37">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s" s="38">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s" s="39">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s" s="40">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s" s="41">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s" s="42">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s" s="43">
+        <v>37</v>
+      </c>
+      <c r="J5" t="s" s="44">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s" s="45">
+        <v>21</v>
+      </c>
+      <c r="L5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="46">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s" s="47">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s" s="48">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s" s="49">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s" s="50">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s" s="51">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s" s="52">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s" s="53">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s" s="54">
+        <v>43</v>
+      </c>
+      <c r="J6" t="s" s="55">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s" s="56">
+        <v>21</v>
+      </c>
+      <c r="L6"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
